--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\önéletrajz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDE31DA-AD19-481A-940D-8D0BD209AA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66648B7-FFA8-4DCA-99D7-9C6833324622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>mail</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>asd1</t>
+  </si>
+  <si>
+    <t>asd2</t>
+  </si>
+  <si>
+    <t>asd3</t>
+  </si>
+  <si>
+    <t>asd4</t>
+  </si>
+  <si>
+    <t>asd5</t>
+  </si>
+  <si>
+    <t>asd6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>asd8</t>
+  </si>
+  <si>
+    <t>asd9</t>
+  </si>
+  <si>
+    <t>asd10</t>
+  </si>
+  <si>
+    <t>teszt9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>test11</t>
   </si>
 </sst>
 </file>
@@ -49,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,9 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -354,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="A13" sqref="A13:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,6 +443,118 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
